--- a/data_processed/20250703/BTCUSDQMOMENT_20250703.xlsx
+++ b/data_processed/20250703/BTCUSDQMOMENT_20250703.xlsx
@@ -566,10 +566,18 @@
       <c r="H3" t="n">
         <v>11.0728681165078</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>0.9344624777122864</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.3658718481116301</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.764271873561129</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.54413297204941</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">

--- a/data_processed/20250703/BTCUSDQMOMENT_20250703.xlsx
+++ b/data_processed/20250703/BTCUSDQMOMENT_20250703.xlsx
@@ -510,19 +510,19 @@
         <v>0.06027397260273973</v>
       </c>
       <c r="D2" t="n">
-        <v>110438.8831009047</v>
+        <v>110409.3908774742</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.004351290274351193</v>
+        <v>-0.006190087236016062</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1584657149112894</v>
+        <v>0.1670491715926389</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.8591247616554237</v>
+        <v>-1.375772603870159</v>
       </c>
       <c r="H2" t="n">
-        <v>11.32344490212147</v>
+        <v>17.01743023179016</v>
       </c>
       <c r="I2" t="n">
         <v>0.8766764252196357</v>
@@ -552,19 +552,19 @@
         <v>0.1561643835616438</v>
       </c>
       <c r="D3" t="n">
-        <v>111219.3854694508</v>
+        <v>111185.158075578</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.009120151399480688</v>
+        <v>-0.01116453934005763</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1906751124836093</v>
+        <v>0.2025668836000296</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.043863558675955</v>
+        <v>-1.687299940982553</v>
       </c>
       <c r="H3" t="n">
-        <v>11.0728681165078</v>
+        <v>19.12339510114475</v>
       </c>
       <c r="I3" t="n">
         <v>0.9344624777122864</v>
@@ -594,19 +594,19 @@
         <v>0.2328767123287671</v>
       </c>
       <c r="D4" t="n">
-        <v>111984.2479537014</v>
+        <v>111847.7858363563</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.009864114592299765</v>
+        <v>-0.01607793054692739</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1958961644256888</v>
+        <v>0.2237846441944246</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.5753353042282146</v>
+        <v>-1.659983810261343</v>
       </c>
       <c r="H4" t="n">
-        <v>8.0163591205829</v>
+        <v>18.26025916565363</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -628,19 +628,19 @@
         <v>0.3287671232876712</v>
       </c>
       <c r="D5" t="n">
-        <v>112585.2251984378</v>
+        <v>112537.8142592119</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.02164892800777248</v>
+        <v>-0.02366714428898253</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2301332759789662</v>
+        <v>0.2389743831241476</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.163158408385063</v>
+        <v>-1.427074832248852</v>
       </c>
       <c r="H5" t="n">
-        <v>10.66987900450465</v>
+        <v>12.97648910173117</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -662,19 +662,19 @@
         <v>0.4054794520547945</v>
       </c>
       <c r="D6" t="n">
-        <v>113239.2392842941</v>
+        <v>113311.1599209056</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.0224862178822848</v>
+        <v>-0.01966298012433302</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2195951841511431</v>
+        <v>0.2094600744501642</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.6566039983231826</v>
+        <v>-0.3772497099170516</v>
       </c>
       <c r="H6" t="n">
-        <v>7.072160896807318</v>
+        <v>5.410188786629753</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -696,19 +696,19 @@
         <v>0.4821917808219178</v>
       </c>
       <c r="D7" t="n">
-        <v>113653.8996218586</v>
+        <v>113657.5315285968</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.03425488015473081</v>
+        <v>-0.03366348536694454</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2691368735055786</v>
+        <v>0.263501596236572</v>
       </c>
       <c r="G7" t="n">
-        <v>-2.039660510260636</v>
+        <v>-1.78366541778223</v>
       </c>
       <c r="H7" t="n">
-        <v>18.8154386687516</v>
+        <v>15.10594639157191</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -730,19 +730,19 @@
         <v>0.9041095890410958</v>
       </c>
       <c r="D8" t="n">
-        <v>115323.53921359</v>
+        <v>115113.3739530644</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.04324895793013305</v>
+        <v>-0.04850368502288669</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2083958572717756</v>
+        <v>0.2220867862683029</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.812561111527288</v>
+        <v>-1.069415029573028</v>
       </c>
       <c r="H8" t="n">
-        <v>6.007528913699743</v>
+        <v>7.350973012894964</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -764,19 +764,19 @@
         <v>0.9808219178082191</v>
       </c>
       <c r="D9" t="n">
-        <v>117127.7617232431</v>
+        <v>116843.4880410809</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.08771950781901842</v>
+        <v>-0.09638973781563547</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3464258306415702</v>
+        <v>0.3759359773370344</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.204847581184815</v>
+        <v>-1.491749604097103</v>
       </c>
       <c r="H9" t="n">
-        <v>7.809002345335382</v>
+        <v>9.312567148337838</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -798,19 +798,19 @@
         <v>1.23013698630137</v>
       </c>
       <c r="D10" t="n">
-        <v>119060.4827846993</v>
+        <v>118169.8471346056</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1128200252724406</v>
+        <v>-0.1363673245867893</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4068079261480085</v>
+        <v>0.4764656808826944</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.307006905667451</v>
+        <v>-1.632750298015933</v>
       </c>
       <c r="H10" t="n">
-        <v>6.423380740189352</v>
+        <v>7.803622810733291</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -1070,19 +1070,19 @@
         <v>0.02191780821917808</v>
       </c>
       <c r="D17" t="n">
-        <v>110427.1572818867</v>
+        <v>110439.2903022914</v>
       </c>
       <c r="E17" t="n">
-        <v>0.01267607867353536</v>
+        <v>0.01386554118168657</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1481637799644377</v>
+        <v>0.1406463871966</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.141187437865148</v>
+        <v>-0.5656738459692482</v>
       </c>
       <c r="H17" t="n">
-        <v>15.84334334910301</v>
+        <v>9.750533922987451</v>
       </c>
       <c r="I17" t="n">
         <v>-0.0164987198698231</v>

--- a/data_processed/20250703/BTCUSDQMOMENT_20250703.xlsx
+++ b/data_processed/20250703/BTCUSDQMOMENT_20250703.xlsx
@@ -608,10 +608,18 @@
       <c r="H4" t="n">
         <v>18.26025916565363</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>0.7915244526469486</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.3495144155625457</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-0.3577615886414741</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.104564450297753</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">

--- a/data_processed/20250703/BTCUSDQMOMENT_20250703.xlsx
+++ b/data_processed/20250703/BTCUSDQMOMENT_20250703.xlsx
@@ -650,10 +650,18 @@
       <c r="H5" t="n">
         <v>12.97648910173117</v>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>0.7525028612459097</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.4834040075754473</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.05804491740751398</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.279527057949995</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
